--- a/RealEstate/app/static/data/last_df.xlsx
+++ b/RealEstate/app/static/data/last_df.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.103.45589"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>지역별</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>충북</t>
+  </si>
+  <si>
+    <t>아파트평균매매가</t>
+  </si>
+  <si>
+    <t>병원수대비평균매매가</t>
+  </si>
+  <si>
+    <t>학원수대비평균매매가</t>
+  </si>
+  <si>
+    <t>대중교통사용자수대비평균매매가</t>
   </si>
 </sst>
 </file>
@@ -154,55 +166,676 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="21">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -490,20 +1123,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="K1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <cols>
+    <col min="3" max="3" width="19.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="21.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="22.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="24" max="24" width="18.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="26" max="26" width="25.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="27" max="27" width="19.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -532,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -574,7 +1212,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>24</v>
@@ -583,1421 +1221,1423 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16.500000">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0">
         <v>63.8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0">
         <v>251.2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0">
         <v>37.555837</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0">
         <v>128.209315</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0">
         <v>3.93730407523511</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="0">
         <v>521958</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.812647760930956</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" s="0">
+        <v>4.81264776093096</v>
+      </c>
+      <c r="I2" s="0">
         <v>763</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.292267365661861</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" s="0">
+        <v>3.29226736566186</v>
+      </c>
+      <c r="K2" s="0">
         <v>15</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="0">
         <v>778</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="0">
         <v>363</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="0">
         <v>348</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="0">
         <v>163</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="0">
         <v>116</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="0">
         <v>2179</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.6920110192837465</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.7218390804597701</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.541104294478528</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="S2" s="0">
+        <v>0.692011019283747</v>
+      </c>
+      <c r="T2" s="0">
+        <v>0.72183908045977</v>
+      </c>
+      <c r="U2" s="0">
+        <v>1.54110429447853</v>
+      </c>
+      <c r="V2" s="0">
         <v>2.16551724137931</v>
       </c>
-      <c r="W2" t="n">
-        <v>14.77647058823529</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1152822395594309</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.07884494664155681</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="W2" s="0">
+        <v>14.7764705882353</v>
+      </c>
+      <c r="X2" s="0">
+        <v>0.115282239559431</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0.0788449466415568</v>
+      </c>
+      <c r="Z2" s="0">
         <v>50791</v>
       </c>
-      <c r="AA2" t="n">
-        <v>49.45758106751196</v>
+      <c r="AA2" s="0">
+        <v>49.457581067512</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16.500000">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0">
         <v>62.6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0">
         <v>680.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0">
         <v>37.567167</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0">
         <v>127.190292</v>
       </c>
-      <c r="F3" t="n">
-        <v>10.87539936102236</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="0">
+        <v>10.8753993610224</v>
+      </c>
+      <c r="G3" s="0">
         <v>4520065</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.506173030697567</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" s="0">
+        <v>1.50617303069757</v>
+      </c>
+      <c r="I3" s="0">
         <v>6815</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.9989728539985326</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" s="0">
+        <v>0.998972853998533</v>
+      </c>
+      <c r="K3" s="0">
         <v>61</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="0">
         <v>6876</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0">
         <v>2209</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0">
         <v>1317</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0">
         <v>646</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="0">
         <v>485</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="0">
         <v>61</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="0">
         <v>21716</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.3081937528293345</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5169324221716021</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.053869969040248</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.403711340206185</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11.16065573770492</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.03135015656658684</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02575470984338352</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="S3" s="0">
+        <v>0.308193752829335</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.516932422171602</v>
+      </c>
+      <c r="U3" s="0">
+        <v>1.05386996904025</v>
+      </c>
+      <c r="V3" s="0">
+        <v>1.40371134020619</v>
+      </c>
+      <c r="W3" s="0">
+        <v>11.1606557377049</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.0313501565665868</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.0257547098433835</v>
+      </c>
+      <c r="Z3" s="0">
         <v>2305350</v>
       </c>
-      <c r="AA3" t="n">
-        <v>2.953130761055805</v>
+      <c r="AA3" s="0">
+        <v>2.95313076105581</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.500000">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0">
         <v>61.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0">
         <v>332.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0">
         <v>35.259787</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0">
         <v>128.664734</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.445171849427168</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="0">
+        <v>5.44517184942717</v>
+      </c>
+      <c r="G4" s="0">
         <v>1108068</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.002523310843739</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="0">
+        <v>3.00252331084374</v>
+      </c>
+      <c r="I4" s="0">
         <v>1612</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.063895781637717</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="0">
+        <v>2.06389578163772</v>
+      </c>
+      <c r="K4" s="0">
         <v>25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="0">
         <v>1637</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0">
         <v>683</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0">
         <v>509</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="0">
         <v>265</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="0">
         <v>190</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="0">
         <v>20</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="0">
         <v>5972</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.4871156661786237</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.6536345776031434</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.255471698113207</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.751052631578947</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="S4" s="0">
+        <v>0.487115666178624</v>
+      </c>
+      <c r="T4" s="0">
+        <v>0.653634577603143</v>
+      </c>
+      <c r="U4" s="0">
+        <v>1.25547169811321</v>
+      </c>
+      <c r="V4" s="0">
+        <v>1.75105263157895</v>
+      </c>
+      <c r="W4" s="0">
         <v>16.635</v>
       </c>
-      <c r="X4" t="n">
-        <v>0.05570997990622906</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.04355282104987564</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="X4" s="0">
+        <v>0.0557099799062291</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.0435528210498756</v>
+      </c>
+      <c r="Z4" s="0">
         <v>266742</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12.47272645477653</v>
+      <c r="AA4" s="0">
+        <v>12.4727264547765</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16.500000">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0">
         <v>62.2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0">
         <v>243.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0">
         <v>36.248647</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0">
         <v>128.664734</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.916398713826367</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="0">
+        <v>3.91639871382637</v>
+      </c>
+      <c r="G5" s="0">
         <v>887033</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="0">
         <v>2.74623379288031</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="0">
         <v>1271</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.916601101494886</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" s="0">
+        <v>1.91660110149489</v>
+      </c>
+      <c r="K5" s="0">
         <v>19</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="0">
         <v>1290</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0">
         <v>695</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0">
         <v>473</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0">
         <v>261</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0">
         <v>185</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0">
         <v>33</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0">
         <v>3529</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.3505035971223022</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.5150105708245243</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.316756756756757</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.381818181818182</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.06902805327288183</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.04706336939721793</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="S5" s="0">
+        <v>0.350503597122302</v>
+      </c>
+      <c r="T5" s="0">
+        <v>0.515010570824524</v>
+      </c>
+      <c r="U5" s="0">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="V5" s="0">
+        <v>1.31675675675676</v>
+      </c>
+      <c r="W5" s="0">
+        <v>7.38181818181818</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.0690280532728818</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0.0470633693972179</v>
+      </c>
+      <c r="Z5" s="0">
         <v>115973</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21.00488906900744</v>
+      <c r="AA5" s="0">
+        <v>21.0048890690074</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16.500000">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0">
         <v>58</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0">
         <v>402.2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0">
         <v>35.126033</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0">
         <v>126.831302</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0">
         <v>6.93448275862069</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0">
         <v>511324</v>
       </c>
-      <c r="H6" t="n">
-        <v>7.865854135538328</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="0">
+        <v>7.86585413553833</v>
+      </c>
+      <c r="I6" s="0">
         <v>931</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.320085929108485</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6" s="0">
+        <v>4.32008592910849</v>
+      </c>
+      <c r="K6" s="0">
         <v>21</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="0">
         <v>952</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="0">
         <v>294</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="0">
         <v>155</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="0">
         <v>91</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="0">
         <v>68</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="0">
         <v>17</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="0">
         <v>3439</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.368027210884354</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.594838709677419</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="S6" s="0">
+        <v>1.36802721088435</v>
+      </c>
+      <c r="T6" s="0">
+        <v>2.59483870967742</v>
+      </c>
+      <c r="U6" s="0">
         <v>4.41978021978022</v>
       </c>
-      <c r="V6" t="n">
-        <v>5.914705882352941</v>
-      </c>
-      <c r="W6" t="n">
-        <v>23.65882352941176</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1169526025007269</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.09896653543307087</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="V6" s="0">
+        <v>5.91470588235294</v>
+      </c>
+      <c r="W6" s="0">
+        <v>23.6588235294118</v>
+      </c>
+      <c r="X6" s="0">
+        <v>0.116952602500727</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.0989665354330709</v>
+      </c>
+      <c r="Z6" s="0">
         <v>168308</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23.89666563680871</v>
+      <c r="AA6" s="0">
+        <v>23.8966656368087</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.500000">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0">
         <v>59</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0">
         <v>406.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0">
         <v>35.798838</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="0">
         <v>128.583052</v>
       </c>
-      <c r="F7" t="n">
-        <v>6.894915254237288</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="0">
+        <v>6.89491525423729</v>
+      </c>
+      <c r="G7" s="0">
         <v>751651</v>
       </c>
-      <c r="H7" t="n">
-        <v>5.412086194257707</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="0">
+        <v>5.41208619425771</v>
+      </c>
+      <c r="I7" s="0">
         <v>1759</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.312677657760091</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" s="0">
+        <v>2.31267765776009</v>
+      </c>
+      <c r="K7" s="0">
         <v>12</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="0">
         <v>1771</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="0">
         <v>342</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="0">
         <v>232</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="0">
         <v>125</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="0">
         <v>94</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="0">
         <v>11</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="0">
         <v>3941</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.189473684210526</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.753448275862069</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="S7" s="0">
+        <v>1.18947368421053</v>
+      </c>
+      <c r="T7" s="0">
+        <v>1.75344827586207</v>
+      </c>
+      <c r="U7" s="0">
         <v>3.2544</v>
       </c>
-      <c r="V7" t="n">
-        <v>4.327659574468085</v>
-      </c>
-      <c r="W7" t="n">
-        <v>36.98181818181818</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1032225323521949</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.08573234984193888</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="V7" s="0">
+        <v>4.32765957446809</v>
+      </c>
+      <c r="W7" s="0">
+        <v>36.9818181818182</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0.103222532352195</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0.0857323498419389</v>
+      </c>
+      <c r="Z7" s="0">
         <v>409841</v>
       </c>
-      <c r="AA7" t="n">
-        <v>9.925800493362059</v>
+      <c r="AA7" s="0">
+        <v>9.92580049336206</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.500000">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0">
         <v>62.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0">
         <v>456.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="0">
         <v>36.321655</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="0">
         <v>127.378953</v>
       </c>
-      <c r="F8" t="n">
-        <v>7.327447833065811</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="0">
+        <v>7.32744783306581</v>
+      </c>
+      <c r="G8" s="0">
         <v>517224</v>
       </c>
-      <c r="H8" t="n">
-        <v>8.825963219030825</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="0">
+        <v>8.82596321903083</v>
+      </c>
+      <c r="I8" s="0">
         <v>1069</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.270346117867165</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" s="0">
+        <v>4.27034611786717</v>
+      </c>
+      <c r="K8" s="0">
         <v>10</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="0">
         <v>1079</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0">
         <v>253</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="0">
         <v>148</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="0">
         <v>88</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="0">
         <v>62</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="0">
         <v>15</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="0">
         <v>2198</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.804347826086957</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="S8" s="0">
+        <v>1.80434782608696</v>
+      </c>
+      <c r="T8" s="0">
         <v>3.08445945945946</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="0">
         <v>5.1875</v>
       </c>
-      <c r="V8" t="n">
-        <v>7.362903225806452</v>
-      </c>
-      <c r="W8" t="n">
-        <v>30.43333333333333</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.2076888080072793</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.1651591895803184</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="V8" s="0">
+        <v>7.36290322580645</v>
+      </c>
+      <c r="W8" s="0">
+        <v>30.4333333333333</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.207688808007279</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.165159189580318</v>
+      </c>
+      <c r="Z8" s="0">
         <v>195603</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23.33808786163812</v>
+      <c r="AA8" s="0">
+        <v>23.3380878616381</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.500000">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0">
         <v>56.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0">
         <v>449</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="0">
         <v>35.198362</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="0">
         <v>129.053922</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="0">
         <v>7.93286219081272</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0">
         <v>1167322</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.846410844651261</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="0">
+        <v>3.84641084465126</v>
+      </c>
+      <c r="I9" s="0">
         <v>2340</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.918803418803419</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" s="0">
+        <v>1.91880341880342</v>
+      </c>
+      <c r="K9" s="0">
         <v>29</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="0">
         <v>2369</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="0">
         <v>397</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="0">
         <v>304</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="0">
         <v>171</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="0">
         <v>142</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="0">
         <v>21</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="0">
         <v>4938</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.130982367758187</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.476973684210526</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.625730994152047</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.161971830985915</v>
-      </c>
-      <c r="W9" t="n">
-        <v>21.38095238095238</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.09092750101255569</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.07517160555834589</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="S9" s="0">
+        <v>1.13098236775819</v>
+      </c>
+      <c r="T9" s="0">
+        <v>1.47697368421053</v>
+      </c>
+      <c r="U9" s="0">
+        <v>2.62573099415205</v>
+      </c>
+      <c r="V9" s="0">
+        <v>3.16197183098592</v>
+      </c>
+      <c r="W9" s="0">
+        <v>21.3809523809524</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0.0909275010125557</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0.0751716055583459</v>
+      </c>
+      <c r="Z9" s="0">
         <v>847132</v>
       </c>
-      <c r="AA9" t="n">
-        <v>5.300236562896927</v>
+      <c r="AA9" s="0">
+        <v>5.30023656289693</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.500000">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0">
         <v>59.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0">
         <v>1493.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="0">
         <v>37.540705</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="0">
         <v>126.956764</v>
       </c>
-      <c r="F10" t="n">
-        <v>24.93322203672788</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="0">
+        <v>24.9332220367279</v>
+      </c>
+      <c r="G10" s="0">
         <v>4462933</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.346454002334339</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="0">
+        <v>3.34645400233434</v>
+      </c>
+      <c r="I10" s="0">
         <v>8379</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.782432271154076</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" s="0">
+        <v>1.78243227115408</v>
+      </c>
+      <c r="K10" s="0">
         <v>57</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="0">
         <v>8436</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0">
         <v>787</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="0">
         <v>607</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="0">
         <v>389</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="0">
         <v>320</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="0">
         <v>48</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="0">
         <v>13992</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.897712833545108</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.460461285008237</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3.839331619537275</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="S10" s="0">
+        <v>1.89771283354511</v>
+      </c>
+      <c r="T10" s="0">
+        <v>2.46046128500824</v>
+      </c>
+      <c r="U10" s="0">
+        <v>3.83933161953728</v>
+      </c>
+      <c r="V10" s="0">
         <v>4.6671875</v>
       </c>
-      <c r="W10" t="n">
-        <v>31.11458333333333</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1067395654659806</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.09251688038158955</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="W10" s="0">
+        <v>31.1145833333333</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0.106739565465981</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.0925168803815896</v>
+      </c>
+      <c r="Z10" s="0">
         <v>3384659</v>
       </c>
-      <c r="AA10" t="n">
-        <v>4.412556774552473</v>
+      <c r="AA10" s="0">
+        <v>4.41255677455247</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.500000">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0">
         <v>61.7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0">
         <v>700.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="0">
         <v>36.4875</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="0">
         <v>127.28167</v>
       </c>
-      <c r="F11" t="n">
-        <v>11.35008103727715</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11" s="0">
+        <v>11.3500810372772</v>
+      </c>
+      <c r="G11" s="0">
         <v>188000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="0">
         <v>37.25</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="0">
         <v>168</v>
       </c>
-      <c r="J11" t="n">
-        <v>41.80952380952381</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" s="0">
+        <v>41.8095238095238</v>
+      </c>
+      <c r="K11" s="0">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="0">
         <v>168</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0">
         <v>62</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="0">
         <v>51</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="0">
         <v>26</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="0">
         <v>21</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="0">
         <v>3</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="0">
         <v>689</v>
       </c>
-      <c r="S11" t="n">
-        <v>11.32903225806452</v>
-      </c>
-      <c r="T11" t="n">
-        <v>13.77254901960784</v>
-      </c>
-      <c r="U11" t="n">
-        <v>27.01538461538462</v>
-      </c>
-      <c r="V11" t="n">
-        <v>33.44761904761905</v>
-      </c>
-      <c r="W11" t="n">
-        <v>234.1333333333333</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="S11" s="0">
+        <v>11.3290322580645</v>
+      </c>
+      <c r="T11" s="0">
+        <v>13.7725490196078</v>
+      </c>
+      <c r="U11" s="0">
+        <v>27.0153846153846</v>
+      </c>
+      <c r="V11" s="0">
+        <v>33.4476190476191</v>
+      </c>
+      <c r="W11" s="0">
+        <v>234.133333333333</v>
+      </c>
+      <c r="X11" s="0">
         <v>1.01944847605225</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0.8244131455399061</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="Y11" s="0">
+        <v>0.824413145539906</v>
+      </c>
+      <c r="Z11" s="0">
         <v>27063</v>
       </c>
-      <c r="AA11" t="n">
-        <v>259.5425488674574</v>
+      <c r="AA11" s="0">
+        <v>259.542548867457</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.500000">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0">
         <v>58.8</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0">
         <v>365</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0">
         <v>35.519301</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="0">
         <v>129.239078</v>
       </c>
-      <c r="F12" t="n">
-        <v>6.207482993197279</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12" s="0">
+        <v>6.20748299319728</v>
+      </c>
+      <c r="G12" s="0">
         <v>436128</v>
       </c>
-      <c r="H12" t="n">
-        <v>8.369102648763665</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="0">
+        <v>8.36910264876367</v>
+      </c>
+      <c r="I12" s="0">
         <v>596</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.124161073825504</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12" s="0">
+        <v>6.1241610738255</v>
+      </c>
+      <c r="K12" s="0">
         <v>8</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="0">
         <v>604</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="0">
         <v>196</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="0">
         <v>121</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="0">
         <v>64</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="0">
         <v>58</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="0">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="0">
         <v>2503</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.862244897959184</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.016528925619835</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="S12" s="0">
+        <v>1.86224489795918</v>
+      </c>
+      <c r="T12" s="0">
+        <v>3.01652892561984</v>
+      </c>
+      <c r="U12" s="0">
         <v>5.703125</v>
       </c>
-      <c r="V12" t="n">
-        <v>6.293103448275862</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="V12" s="0">
+        <v>6.29310344827586</v>
+      </c>
+      <c r="W12" s="0">
         <v>91.25</v>
       </c>
-      <c r="X12" t="n">
-        <v>0.1458250099880144</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.1238968092328581</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="X12" s="0">
+        <v>0.145825009988014</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0.123896809232858</v>
+      </c>
+      <c r="Z12" s="0">
         <v>108124</v>
       </c>
-      <c r="AA12" t="n">
-        <v>33.75753764196663</v>
+      <c r="AA12" s="0">
+        <v>33.7575376419666</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.500000">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0">
         <v>62.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0">
         <v>546.6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="0">
         <v>37.469221</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="0">
         <v>126.573234</v>
       </c>
-      <c r="F13" t="n">
-        <v>8.759615384615385</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13" s="0">
+        <v>8.75961538461539</v>
+      </c>
+      <c r="G13" s="0">
         <v>871515</v>
       </c>
-      <c r="H13" t="n">
-        <v>6.271836973546066</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="0">
+        <v>6.27183697354607</v>
+      </c>
+      <c r="I13" s="0">
         <v>1531</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.570215545395167</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13" s="0">
+        <v>3.57021554539517</v>
+      </c>
+      <c r="K13" s="0">
         <v>19</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="0">
         <v>1550</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0">
         <v>399</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="0">
         <v>258</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="0">
         <v>139</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="0">
         <v>126</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="0">
         <v>7</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="0">
         <v>3904</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.369924812030075</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.118604651162791</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3.932374100719425</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.338095238095239</v>
-      </c>
-      <c r="W13" t="n">
-        <v>78.08571428571429</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.1400102459016394</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.1130974549968963</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="S13" s="0">
+        <v>1.36992481203008</v>
+      </c>
+      <c r="T13" s="0">
+        <v>2.11860465116279</v>
+      </c>
+      <c r="U13" s="0">
+        <v>3.93237410071943</v>
+      </c>
+      <c r="V13" s="0">
+        <v>4.33809523809524</v>
+      </c>
+      <c r="W13" s="0">
+        <v>78.0857142857143</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0.140010245901639</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>0.113097454996896</v>
+      </c>
+      <c r="Z13" s="0">
         <v>584900</v>
       </c>
-      <c r="AA13" t="n">
-        <v>9.345187211489144</v>
+      <c r="AA13" s="0">
+        <v>9.34518721148914</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.500000">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="0">
+        <v>66.1</v>
+      </c>
+      <c r="C14" s="0">
         <v>246.7</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="0">
         <v>34.8194</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="0">
         <v>126.893113</v>
       </c>
-      <c r="F14" t="n">
-        <v>3.732223903177005</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" s="0">
+        <v>3.73222390317701</v>
+      </c>
+      <c r="G14" s="0">
         <v>627942</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.928706791391562</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="0">
+        <v>3.92870679139156</v>
+      </c>
+      <c r="I14" s="0">
         <v>938</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.630063965884861</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14" s="0">
+        <v>2.63006396588486</v>
+      </c>
+      <c r="K14" s="0">
         <v>23</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="0">
         <v>961</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="0">
         <v>524</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="0">
         <v>430</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="0">
         <v>250</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="0">
         <v>144</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="0">
         <v>19</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="0">
         <v>2687</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.4708015267175572</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.5737209302325581</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.9867999999999999</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.713194444444444</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12.98421052631579</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.09181243021957573</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.06085347804637395</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="S14" s="0">
+        <v>0.470801526717557</v>
+      </c>
+      <c r="T14" s="0">
+        <v>0.573720930232558</v>
+      </c>
+      <c r="U14" s="0">
+        <v>0.9868</v>
+      </c>
+      <c r="V14" s="0">
+        <v>1.71319444444444</v>
+      </c>
+      <c r="W14" s="0">
+        <v>12.9842105263158</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.0918124302195757</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0.060853478046374</v>
+      </c>
+      <c r="Z14" s="0">
         <v>100568</v>
       </c>
-      <c r="AA14" t="n">
-        <v>24.53066581815289</v>
+      <c r="AA14" s="0">
+        <v>24.5306658181529</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.500000">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0">
         <v>62.3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0">
         <v>254.2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="0">
         <v>35.716705</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="0">
         <v>127.144185</v>
       </c>
-      <c r="F15" t="n">
-        <v>4.080256821829855</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" s="0">
+        <v>4.08025682182986</v>
+      </c>
+      <c r="G15" s="0">
         <v>568045</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.474997579417123</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" s="0">
+        <v>4.47499757941712</v>
+      </c>
+      <c r="I15" s="0">
         <v>1153</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.204683434518647</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" s="0">
+        <v>2.20468343451865</v>
+      </c>
+      <c r="K15" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="0">
         <v>1166</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="0">
         <v>507</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="0">
         <v>420</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="0">
         <v>210</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="0">
         <v>133</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="0">
         <v>18</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="0">
         <v>3853</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.5013806706114399</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.6052380952380952</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="S15" s="0">
+        <v>0.50138067061144</v>
+      </c>
+      <c r="T15" s="0">
+        <v>0.605238095238095</v>
+      </c>
+      <c r="U15" s="0">
         <v>1.21047619047619</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.911278195488722</v>
-      </c>
-      <c r="W15" t="n">
-        <v>14.12222222222222</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.06597456527381261</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.04944563314530247</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="V15" s="0">
+        <v>1.91127819548872</v>
+      </c>
+      <c r="W15" s="0">
+        <v>14.1222222222222</v>
+      </c>
+      <c r="X15" s="0">
+        <v>0.0659745652738126</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>0.0494456331453025</v>
+      </c>
+      <c r="Z15" s="0">
         <v>93341</v>
       </c>
-      <c r="AA15" t="n">
-        <v>27.23347725008303</v>
+      <c r="AA15" s="0">
+        <v>27.233477250083</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.500000">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="0">
+        <v>68.9</v>
+      </c>
+      <c r="C16" s="0">
         <v>464.8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="0">
         <v>33.364805</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="0">
         <v>126.542671</v>
       </c>
-      <c r="F16" t="n">
-        <v>6.746008708272859</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16" s="0">
+        <v>6.74600870827286</v>
+      </c>
+      <c r="G16" s="0">
         <v>211699</v>
       </c>
-      <c r="H16" t="n">
-        <v>21.95570125508387</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" s="0">
+        <v>21.9557012550839</v>
+      </c>
+      <c r="I16" s="0">
         <v>438</v>
       </c>
-      <c r="J16" t="n">
-        <v>10.61187214611872</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" s="0">
+        <v>10.6118721461187</v>
+      </c>
+      <c r="K16" s="0">
         <v>6</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="0">
         <v>444</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="0">
         <v>123</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="0">
         <v>113</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="0">
         <v>45</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="0">
         <v>30</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="0">
         <v>4</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="0">
         <v>1051</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.778861788617886</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.113274336283186</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10.32888888888889</v>
-      </c>
-      <c r="V16" t="n">
-        <v>15.49333333333333</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="S16" s="0">
+        <v>3.77886178861789</v>
+      </c>
+      <c r="T16" s="0">
+        <v>4.11327433628319</v>
+      </c>
+      <c r="U16" s="0">
+        <v>10.3288888888889</v>
+      </c>
+      <c r="V16" s="0">
+        <v>15.4933333333333</v>
+      </c>
+      <c r="W16" s="0">
         <v>116.2</v>
       </c>
-      <c r="X16" t="n">
-        <v>0.4422454804947669</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.3402635431918009</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="X16" s="0">
+        <v>0.442245480494767</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>0.340263543191801</v>
+      </c>
+      <c r="Z16" s="0">
         <v>68519</v>
       </c>
-      <c r="AA16" t="n">
-        <v>67.83519899589895</v>
+      <c r="AA16" s="0">
+        <v>67.835198995899</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.500000">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="0">
         <v>64.3</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0">
         <v>279.1</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="0">
         <v>36.557229</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="0">
         <v>126.779757</v>
       </c>
-      <c r="F17" t="n">
-        <v>4.340590979782271</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" s="0">
+        <v>4.34059097978227</v>
+      </c>
+      <c r="G17" s="0">
         <v>796800</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.502761044176707</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" s="0">
+        <v>3.50276104417671</v>
+      </c>
+      <c r="I17" s="0">
         <v>1051</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.655566127497622</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17" s="0">
+        <v>2.65556612749762</v>
+      </c>
+      <c r="K17" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="0">
         <v>1064</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="0">
         <v>498</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="0">
         <v>412</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="0">
         <v>184</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="0">
         <v>117</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="0">
         <v>21</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="0">
         <v>2939</v>
       </c>
-      <c r="S17" t="n">
-        <v>0.5604417670682731</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.6774271844660195</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.516847826086957</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.385470085470086</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13.29047619047619</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.09496427356243621</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="S17" s="0">
+        <v>0.560441767068273</v>
+      </c>
+      <c r="T17" s="0">
+        <v>0.67742718446602</v>
+      </c>
+      <c r="U17" s="0">
+        <v>1.51684782608696</v>
+      </c>
+      <c r="V17" s="0">
+        <v>2.38547008547009</v>
+      </c>
+      <c r="W17" s="0">
+        <v>13.2904761904762</v>
+      </c>
+      <c r="X17" s="0">
+        <v>0.0949642735624362</v>
+      </c>
+      <c r="Y17" s="0">
         <v>0.0669144090146248</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17" s="0">
         <v>137084</v>
       </c>
-      <c r="AA17" t="n">
-        <v>20.35977940532812</v>
+      <c r="AA17" s="0">
+        <v>20.3597794053281</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.500000">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="0">
+        <v>64.6</v>
+      </c>
+      <c r="C18" s="0">
         <v>283</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="0">
         <v>36.628503</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="0">
         <v>127.929344</v>
       </c>
-      <c r="F18" t="n">
-        <v>4.380804953560371</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18" s="0">
+        <v>4.38080495356037</v>
+      </c>
+      <c r="G18" s="0">
         <v>621788</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.551390506088892</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" s="0">
+        <v>4.55139050608889</v>
+      </c>
+      <c r="I18" s="0">
         <v>858</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.298368298368298</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18" s="0">
+        <v>3.2983682983683</v>
+      </c>
+      <c r="K18" s="0">
         <v>12</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="0">
         <v>870</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="0">
         <v>327</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="0">
         <v>259</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="0">
         <v>128</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="0">
         <v>84</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="0">
         <v>17</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="0">
         <v>2232</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.8654434250764526</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.092664092664093</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="S18" s="0">
+        <v>0.865443425076453</v>
+      </c>
+      <c r="T18" s="0">
+        <v>1.09266409266409</v>
+      </c>
+      <c r="U18" s="0">
         <v>2.2109375</v>
       </c>
-      <c r="V18" t="n">
-        <v>3.369047619047619</v>
-      </c>
-      <c r="W18" t="n">
-        <v>16.64705882352941</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.1267921146953405</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.09287824089268133</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="V18" s="0">
+        <v>3.36904761904762</v>
+      </c>
+      <c r="W18" s="0">
+        <v>16.6470588235294</v>
+      </c>
+      <c r="X18" s="0">
+        <v>0.12679211469534</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>0.0928782408926813</v>
+      </c>
+      <c r="Z18" s="0">
         <v>84396</v>
       </c>
-      <c r="AA18" t="n">
-        <v>33.53239490023224</v>
+      <c r="AA18" s="0">
+        <v>33.5323949002322</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>